--- a/config/accounts.xlsx
+++ b/config/accounts.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A2:XFD2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/accounts.xlsx
+++ b/config/accounts.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A2:XFD2 A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
